--- a/data_le.xlsx
+++ b/data_le.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_projects\echo_state_network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FA68BF-24F2-4B79-B1CC-65018011DD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE902E3-8880-492F-BFDC-210D7AC7F17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="random" sheetId="1" r:id="rId1"/>
+    <sheet name="periodic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="3">
   <si>
     <t>ac_current</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +54,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -79,9 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -374,17 +392,17 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1">
+        <v>10000000000</v>
+      </c>
+      <c r="D1" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="E1" s="1">
+        <v>30000000000</v>
+      </c>
+      <c r="F1" s="1">
         <v>32000000000</v>
-      </c>
-      <c r="D1" s="1">
-        <v>10000000000</v>
-      </c>
-      <c r="E1" s="1">
-        <v>20000000000</v>
-      </c>
-      <c r="F1" s="1">
-        <v>30000000000</v>
       </c>
       <c r="G1" s="1">
         <v>40000000000</v>
@@ -412,275 +430,171 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D3">
-        <v>2.1</v>
-      </c>
-      <c r="E3">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="F3">
-        <v>2.1</v>
-      </c>
-      <c r="G3">
-        <v>2.1</v>
-      </c>
-      <c r="H3">
-        <v>2.1</v>
-      </c>
-      <c r="I3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K3">
-        <v>2.1</v>
-      </c>
-      <c r="L3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M3">
-        <v>2.1</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2.1</v>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>-8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2.4</v>
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2.5</v>
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>2.2000000000000002</v>
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>-3.88</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2.1</v>
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>-2.3199999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>2.1</v>
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>-1.6</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>2.2000000000000002</v>
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>2.2999999999999998</v>
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>-0.83</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>2.2999999999999998</v>
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>2.1</v>
-      </c>
-      <c r="D13">
-        <v>2.13</v>
-      </c>
-      <c r="E13">
-        <v>2.11</v>
+        <v>55</v>
       </c>
       <c r="F13">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G13">
-        <v>2.1</v>
-      </c>
-      <c r="H13">
-        <v>2.16</v>
-      </c>
-      <c r="I13">
-        <v>2.12</v>
-      </c>
-      <c r="J13">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="K13">
-        <v>2.1</v>
-      </c>
-      <c r="L13">
-        <v>2.1</v>
-      </c>
-      <c r="M13">
-        <v>2.1</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>3.2</v>
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>3.3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>50</v>
-      </c>
-      <c r="B17">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>60</v>
       </c>
-      <c r="B18">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>70</v>
       </c>
-      <c r="B19">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>80</v>
       </c>
-      <c r="B20">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>90</v>
       </c>
-      <c r="B21">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
-      <c r="B22">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>110</v>
-      </c>
-      <c r="B23">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>120</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>130</v>
-      </c>
-      <c r="B25">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>140</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.8</v>
       </c>
-      <c r="B31">
+      <c r="F31">
         <v>1.96</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1.9</v>
       </c>
-      <c r="B32">
+      <c r="F32">
         <v>2</v>
       </c>
     </row>
@@ -727,6 +641,209 @@
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD01E2E-5C77-4B26-A7F1-9758D0C52185}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>10000000000</v>
+      </c>
+      <c r="D1" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="E1" s="1">
+        <v>30000000000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>32000000000</v>
+      </c>
+      <c r="G1" s="1">
+        <v>40000000000</v>
+      </c>
+      <c r="H1" s="1">
+        <v>50000000000</v>
+      </c>
+      <c r="I1" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="J1" s="1">
+        <v>70000000000</v>
+      </c>
+      <c r="K1" s="1">
+        <v>80000000000</v>
+      </c>
+      <c r="L1" s="1">
+        <v>90000000000</v>
+      </c>
+      <c r="M1" s="1">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-0.18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>-2.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data_le.xlsx
+++ b/data_le.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_projects\echo_state_network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemoon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE902E3-8880-492F-BFDC-210D7AC7F17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE2F947-2E5C-4780-A389-F365D184D6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random" sheetId="1" r:id="rId1"/>
@@ -382,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,71 +531,117 @@
       <c r="A15">
         <v>57</v>
       </c>
+      <c r="F15" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>58</v>
+        <v>57.1</v>
+      </c>
+      <c r="F16">
+        <v>-0.94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>59</v>
+        <v>57.2</v>
+      </c>
+      <c r="F17">
+        <v>-0.88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>60</v>
-      </c>
-      <c r="F18">
-        <v>1.65</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>70</v>
-      </c>
-      <c r="F19">
-        <v>4.22</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>80</v>
-      </c>
-      <c r="F20">
-        <v>8.17</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>90</v>
-      </c>
-      <c r="F21">
-        <v>8.58</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>8.27</v>
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>59.1</v>
+      </c>
+      <c r="F27">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>70</v>
+      </c>
+      <c r="F29">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>8.17</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1.8</v>
+        <v>90</v>
       </c>
       <c r="F31">
-        <v>1.96</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1.9</v>
+        <v>100</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
@@ -652,10 +698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD01E2E-5C77-4B26-A7F1-9758D0C52185}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,51 +845,105 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>53</v>
+        <v>52.1</v>
       </c>
       <c r="F11">
-        <v>0.45</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>54</v>
+        <v>52.2</v>
       </c>
       <c r="F12">
-        <v>0.46</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>55</v>
-      </c>
-      <c r="F13">
-        <v>-2</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>56</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>57</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>53</v>
+      </c>
+      <c r="F20">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>54</v>
+      </c>
+      <c r="F21">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>60</v>
+      </c>
+      <c r="F27">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
